--- a/qa_demo.xlsx
+++ b/qa_demo.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="238">
   <si>
     <t>问题语料</t>
   </si>
@@ -25,50 +38,1416 @@
     <t>触发</t>
   </si>
   <si>
-    <t>帮我运行APP</t>
-  </si>
-  <si>
-    <t>好的</t>
+    <t>请介绍一下新立讯公司</t>
+  </si>
+  <si>
+    <t>新立讯公司是一家国家级高新技术企业，专注于智慧教育和信息技术领域。公司在多个城市设有分支机构，包括贵州遵义市的全资子公司贵州新立讯信息技术有限公司，以及南京和西安的分公司。新立讯的业务涵盖了教育技术解决方案的设计与实施，重点在于推进教育信息化和提升教育质量。公司的主要成就包括成功中标遵义市主城区教育局的义务教育均衡发展所需的班班通设备项目，总金额达4496万余元。此外，新立讯还通过了ISO9001质量管理体系、ISO14001环境管理体系、OHSAS18001职业健康安全管理体系的认证。公司的产品和服务在质量管理方面获得了业界的高度评价。在技术方面，新立讯拥有自主研发的视频和音频系统控制软件，这些软件获得了国家版权局的计算机软件著作权登记证书。公司还与多家企业和组织建立了合作关系，涉及智慧旅游、数据平台、ICT项目技术等多个领域。2016年，新立讯在新三板挂牌上市，股票代码为870224。总的来说，新立讯是一个以创新和质量管理为核心，积极推进教育信息化和技术融合的高科技企业。</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>这个商品的优点是什么？</t>
-  </si>
-  <si>
-    <t>没有优点！</t>
+    <t>新立讯公司</t>
+  </si>
+  <si>
+    <t>新立讯公司的创始人是谁</t>
+  </si>
+  <si>
+    <t>新立讯公司的创始人兼董事长是毛霖先生​​。</t>
+  </si>
+  <si>
+    <t>新立讯公司签署过什么协议</t>
+  </si>
+  <si>
+    <r>
+      <t>新立讯公司在其发展过程中签署了多项重要协议：与国内知名证券机构的上市合作协议：南京新立讯与国联证券股份有限公司、亚太（集团）会计师事务所、海华永泰律师事务所、亚太联华资产评估有限公司签署了上市合作协议，这是新立讯走向资本市场的关键一步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。在线旅游数据云平台协议：南京新立讯与扬州双博馆、深圳前海天开公司签署了在线旅游数据云平台协议，涉及智慧旅游和综合数据平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。与中国电信的合作协议：南京新立讯与中国电信集团系统集成贵州公司签署了合作协议，促进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ICT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在教育、交通、城市基础设施建设等领域的应用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。千唐创投的战略合作协议：新立讯与千唐创投在上海浦东丽思卡尔顿酒店签署了战略合作协议，其中千唐创投宣布正式入股新立讯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。与华平信息技术的全面战略合作协议：新立讯与华平信息技术股份有限公司签署了协议，合作范围包括智慧数据、智慧城市、智慧教育与智慧医疗项目建设等领域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇川区平安城市（三期）工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务合作协议：新立讯与相关方签订了涉及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.458</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿元的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇川区平安城市（三期）工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务合作协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。这些协议反映了新立讯公司在不同领域的业务拓展和战略合作伙伴的建立。</t>
+    </r>
+  </si>
+  <si>
+    <t>新立讯公司的产品有什么</t>
+  </si>
+  <si>
+    <t>新立讯公司提供了多种产品，其中包括用于义务教育均衡发展的“班班通”设备。这些设备是设计高品质的教育技术产品，旨在提升教师的信息技术应用能力，实现信息技术与教育教学的深度融合​​</t>
+  </si>
+  <si>
+    <t>请介绍一下龟兔赛跑公司</t>
+  </si>
+  <si>
+    <t>南京龟兔赛跑网络科技有限公司是新立讯公司的全资子公司。在2016年12月7日，该子公司获得了国家工商管理行政总局核发的商标证书，注册商标为“龟兔赛跑”，注册号为“18172055”。这个商标被核定用于共计32项商品或服务​​。然而，文档中未提供关于南京龟兔赛跑网络科技有限公司具体业务或产品的详细信息。</t>
+  </si>
+  <si>
+    <t>新立讯公司的约5000余万金额的合同签订日期和签署在线旅游数据云平台协议的日期，哪个比较早</t>
+  </si>
+  <si>
+    <t>新立讯公司于2016年3月中旬签订了一份合同金额约5000余万的合同​​。而在线旅游数据云平台协议是在2016年4月11日签署的​​。因此，5000余万的合同签订日期比签署在线旅游数据云平台协议的日期更早。</t>
+  </si>
+  <si>
+    <t>千唐创投与新立讯什么时候签署战略合作协议，参会嘉宾有哪些</t>
+  </si>
+  <si>
+    <t>千唐创投与新立讯于2016年7月18日在上海浦东丽思卡尔顿酒店签署了战略合作协议​​。参会嘉宾包括：南京新立讯科技股份有限公司创始人兼董事长毛霖先生、千唐创投CEO尹千林先生、中国（南京）软件谷管委会、南京市雨花台区金融办、中国（南京）软件谷资产管理公司、中国优通集团、风华教育基金会、新立讯保荐单位国联证券、万隆评估、TFI天开国际集团、重庆奥研医药、车城网、贵州和云信息以及数十位专业投资机构的负责人​​。</t>
+  </si>
+  <si>
+    <t>汇川区平安城市（三期）工程业务合作协议是新立讯什么时候和谁签署的</t>
+  </si>
+  <si>
+    <t>新立讯公司与中国电信集团系统集成有限责任公司贵州分公司于2016年10月10日签订了《“汇川区平安城市（三期）工程”业务合作协议》​​。</t>
+  </si>
+  <si>
+    <t>南京新立讯电器有限责任公司党支部的正式成立的同天还有什么重要事情</t>
+  </si>
+  <si>
+    <t>对于南京新立讯电器有限责任公司党支部的正式成立同日，即2016年3月23日，成功召开第一次支部党员大会</t>
+  </si>
+  <si>
+    <t>连云港市海州区委副书记、副区长姜超调研华东农产品交易中心发生了什么</t>
+  </si>
+  <si>
+    <t>2023年11月8日，连云港市海州区委副书记、区政府副区长姜超，区农业农村局党委书记、局长蒋德恩等领导一行莅临华东农产品交易中心调研。盐都区国控集团董事长李杰、交易中心董事长毛霖、电商中心总经理李积鑫、墨鱼网络总经理徐大卫等在家管理层陪同调研。毛霖向姜超一行介绍了交易中心建设及运营情况，带大家参观交易中心：数据魔方（超算中心）、数字农业数据展区、华东农业AI数字人对话区、热力算法销售中心、5G物联网接入专区、苏青协作示范长廊、盐之有味（1+9+N）专区等，全面展示交易中心在数据化、智能化的全领域应用。姜超对交易中心以数据技术应用于农产业的做法表示高度认同，希望进一步加强海州与交易中心的合作，加速实现“东产西送，西产入东”的产销协同发展，为地方农业产业链的升级发展提供更多机遇和赋能。</t>
+  </si>
+  <si>
+    <t>盐城市援海南州同德县、玉树州称多县代表考察华东交易中心发生了什么</t>
+  </si>
+  <si>
+    <t>2023年11月07日，青海海南州同德县委副书记、副县长、盐城工作组组长罗玉成，青海玉树州称多县东西协作专技畜牧人才班等代表一行莅临华东农产品交易中心考察，交易中心热情接待。大家参观了交易中心数据魔方（超算中心）、数字农业数据展区、华东农业AI数字人对话区、热力算法销售中心、5G物联网接入专区、苏青协作示范长廊、盐之有味（1+9+N）专区等。此次考察活动为盐城市援海南州同德县、玉树州称多县代表们提供了数字农业数据化展销观摩和交流机会，也为两地农产交流合作奠定基础。华东交易中心与青海交易中心将联动发展，数据融通，共同推动“东产西送，西产入东”，助力乡村振兴。</t>
+  </si>
+  <si>
+    <t>新百信控股等多家企业代表莅临华东农产品交易中心考察发生了什么</t>
+  </si>
+  <si>
+    <t>2023年10月21日，新百信控股有限公司董事长李建孝，上海鲸世电子商务有限公司董事长陈俊奇，广东新禾道科技有限公司副总裁邓迎贵，平安银行广东省分行行长助理于宝刚，大百汇海洋产业集团副总裁王天成，铭治集团总裁张伟等企业嘉宾代表莅临华东农产品交易中心考察，交易中心热情接待。交易中心电商负责人李积鑫向大家介绍交易中心的建设与筹备运营情况，并带大家参观交易中心：数据魔方（超算中心）、数字农业数据展区、华东农业AI数字人对话区、热力算法销售中心、5G物联网接入专区、苏青协作示范长廊、盐之有味（1+9+N）专区等，并充分互动交流。大家认为华东农产品交易中心的建设运营理念符合当下潮流和发展趋势，对推动数字农业发展和促进农产品流通具有重要意义。大家表示强烈的合作意愿，希望通过合作，共同促进企业市场拓展和数据营销能力，通过“东部优品”“西部优选”平台，强化提升综合数据服务能力。</t>
+  </si>
+  <si>
+    <t>江苏省商务厅二级巡视员王存调研华东农产品交易中心发生了什么</t>
+  </si>
+  <si>
+    <t>2023年10月19日，江苏省商务厅二级巡视员王存一行莅临华东农产品交易中心调研。盐都区委常委、统战部部长吕杨，交易中心副总经理杨庆庆、商管总经理吴雄等在家管理层陪同调研。在交易中心，大家详细参观数据魔方（超算中心）、数字农业数据展区、华东农业AI数字人对话区、热力算法销售中心、5G物联网接入专区、苏青协作示范长廊、盐之有味（1+9+N）专区等。认真听取交易中心“东部优品”平台建设和运营情况以及联营青海农林牧商品交易中心“东产西送、西产入东”的战略布局。王存对交易中心贯彻落实乡村振兴战略，以数字技术提升农产业链创新力的做法给予充分肯定。他指出：华东农产品交易中心要加强线上线下互动，拓宽盐城农特产品市场渠道，加快商贸流通提档升级，以数字化创新强链、补链、延链，为数字经济注入新活力。同时应在智慧物流、冷链物流、数据应用、品牌战略等方面加强建设，扎实推进试点示范。</t>
+  </si>
+  <si>
+    <t>盐都区委副书记、区长马正华调研华东农产品交易中心发生了什么</t>
+  </si>
+  <si>
+    <t>2023年10月17日， 盐都区委副书记、区长马正华，副区长孙高明等领导一行莅临华东农产品交易中心调研，交易中心副总经理杨庆庆及在家管理层陪同调研。杨庆庆向调研组汇报交易中心的建设与筹备运营情况，并详细介绍交易中心各组成部分，包含：数据魔方（超算中心），数字农业数据展区，华东农业AI数字人对话区，热力算法销售中心，5G物联网接入专区，苏青协作示范长廊，优质海产专区，优质淡水养殖区，特色预制菜专区，盐之有味（1+9+N）专区，华东优质农特产品汇聚区，交易中心集中办公区，以及一站式综合服务区及其它附属配套设施。华东交易中心自筹建伊始就坚持“边建设、边招商、边运营”的原则，累计销售各类商品1800余万元，“东部优品”电商平台汇聚各类特色产品（SKU）超8000+。马正华强调，华东农产品交易中心是“数字农业科创园”的领军企业，交易中心要尽快完成全部建设任务并全面展开运营，要持续加强华东农产品交易中心及“东部优品”平台的宣传推广力度，要持续加大提升直销联营（在线交易）集约规模，为新三农和消费者提供高质量、高品质、高效率的数据服务。</t>
+  </si>
+  <si>
+    <t>全市供销社系统农产品资源对接会在华东农产品交易中心成功举办发生了什么</t>
+  </si>
+  <si>
+    <t>2023年10月12日，全市供销社系统农产品资源对接会在华东农产品交易中心一楼会议厅成功举办，活动主办单位为盐城市供销合作总社，华东农产品交易中心承办。参会对象包括盐城市供销合作总社、盐城市各区县供销社以及华东农产品交易中心的相关人员。对接会由市供销社副主任沙附生主持。在对接会上，华东农产品交易中心副总经理杨庆庆详细介绍了中心基本情况，重点介绍交易模式、交易品种、交易流程等等。随后，华东农产品交易中心运营总监李积鑫向与会代表推介交易中心的运营模式、数字化技术应用以及未来发展规划。本次对接会由市社部署组织优质农产品企业入驻“东部优品”电商平台，与盐城全市优秀涉农企业达成合作，并充分发挥“东部优品”平台在数字技术、数据共享、信息安全等优势，为农副产品、农产衍生品销售提质增效。此次对接会旨在加强盐城市供销社系统与华东农产品交易中心之间的紧密联系与深度合作，扩容“东部优品”平台的全市优质农产品线上资源，并通过与“西部优选”平台数据融合，共同探索数字化农业新模式和新路径，促进盐城地区农副产品在全国的流通和销售。</t>
+  </si>
+  <si>
+    <t>盐城电信莅临华东农产品交易中心调研发生了什么</t>
+  </si>
+  <si>
+    <t>2023年10月11日，盐城市电信副总经理唐健，盐都电信局局长徐兴达，盐都电信局副局长李杰等嘉宾一行莅临华东农产品交易中心调研，交易中心董事长兼总经理毛霖、副总经理陈诚、杨庆庆等在家管理层陪同调研。在参观华东农产品交易中心项目建设现场后双方座谈，毛霖首先介绍了华东农产品交易中心股东结构、场景构成、核心技术、业务范围和运营发展计划。随后，毛霖向与会人员推介“东部优品”、“西部优选”助农电商平台以及青海农林牧商品交易中心，并期望交易中心与盐城电信真诚携手合作，致力实现“东产西送、西产入东”。唐健表示，市电信将开放自身资源，全力支持华东交易中心的创新发展，为农产品交易系统提供稳定、高效的基础网络与数据运营服务，共同携手推动华东农产品交易的现代化和数字化进程，为新三农和消费者提供更好的服务和选择，助力盐都“数字农业科创园”发展。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心首场集中招商推介会顺利召开发生了什么</t>
+  </si>
+  <si>
+    <t>2023年9月26日，华东农产品交易中心首场集中招商推介会在盐城市盐都区紫峰大厦华东交易中心会议厅顺利召开。盐城市政府办公室副主任施兴华，陕西省铜川市供销社党组书记、主任张勇，铜川市供销社党组成员、副主任王婧，盐都区国控集团董事长李杰，华东农产品交易中心副总经理杨庆庆，银宝集团“盐之有味”供应链管理公司总经理贾营台，及各县（市、区）五十余家优质涉农企业负责人、嘉宾代表出席参会。会议由盐城市供销社党委书记、主任朱雯主持。华东农产品交易中心以数字经济赋能乡村振兴，在盐城市委、市政府支持指导下，盐城市供销合作总社、盐都区国控集团联合南京新立讯科技股份有限公司共同联建共营华东农产品交易中心。将致力于打造一个集农产品交易、信息发布、金融服务于一体的综合平台。中心将通过数字化技术和互联网平台，提供高效、便捷的交易和服务，促进农产品的流通和增益。同时，华东农产品交易中心与青海农林牧商品交易中心是兄弟单位，“西部优选”已入驻企业2000多家、上线产品2万多个，B端用户达2万+；华东交易中心“东部优品”平台建成后将与青海交易中心实现要素融合、资源共享、数据融通，为农产品流通实现最广范围、最宽领域的融通合作。 华东交易中心秉承“边建设、边招商、边运营”的理念，本次现场招商签约各县区优质农业龙头企业达40余家，分别为东台天海土特产有限公司、东台新合作商贸有限公司、东台王青合作社、江苏金满穗农业发展有限公司、盐之有味供应链管理有限公司、江苏何老大有限公司、射阳天佑农产品有限公司、东台兴凤合作社、江苏源泉渔业有限公司、盐城弘森生态有限公司、盐城冠华水产有限公司、建湖正清合作社、盐城邵氏大闸蟹有限公司、射阳大米集团、江苏佳丰粮油有限公司、盐城果老首乌有限公司、滨海条河合作社、盐城凯兴食品有限公司、滨海金丝园有限公司、江苏费氏集团、盐城天润有限公司、江苏云响仙露有限公司、盐城万洋食品有限公司、江苏新地食品有限公司、江苏绿通电子商务有限公司、大丰宏丰米业有限公司、盐城梦幻迷宫生态农业有限公司、江苏人酒业有限公司、盐都葛武合作社、射阳金源能源有限公司、江苏心思源食品有限公司、盐城秦氏米业有限公司、秦泾文化有限公司、亭湖谷丰合作社、亭湖国谷蛋有限公司、盐城晓成食品有限公司。商家批量入驻“东部优品“平台，为华东交易中心的正式运营奠定基础。交易中心将以高效、便捷、安全、规范的服务，竭诚服务广大用户和企事业单位，助力乡村振兴。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心举行首次招商推介会发生了什么</t>
+  </si>
+  <si>
+    <t>2023年9月20日上午，盐都区农业农村局与华东农产品交易中心联合组织盐都区50余家优质涉农企业，在盐都区农业农村局召开首次“东部优品“平台招商推介会。盐都区农业农村局副局长郑巧云表示，华东农产品交易中心的建设对于促进农产品流通和提升农业高质量发展具有重要意义。随后，华东农产品交易中心副总经理杨庆庆介绍交易中心的基本情况，以及“东部优品”平台的数据赋能，容纳规模、销售功能和全方位服务，推介数据交易平台的先进性、适用性、便捷性和高效性。电商运营总监李积鑫结合青海农林牧商品交易中心“西部优选”平台实践案例，宣讲平台入驻、开店、销售、交易等详细步骤。全面展示了交易中心实地展销场景，系统平台、小程序和订单及服务处置情况。招商现场火爆热烈，线下电话热线不断，与会企业代表与交易中心工作人员逐一交流互动，大家期待尽快组织企业产品和人员对接交易中心，入驻平台，尽快实现联农联企助农助销，打开“东产西送、西产入东”新格局。</t>
+  </si>
+  <si>
+    <t>毛霖向姜超一行介绍了交易中心建设及运营情况，带大家参观交易中心的哪些地方</t>
+  </si>
+  <si>
+    <t>毛霖在向姜超一行介绍华东农产品交易中心的建设及运营情况时，带领他们参观了以下区域：数据魔方（超算中心）、数字农业数据展区、华东农业AI数字人对话区、热力算法销售中心、5G物联网接入专区、苏青协作示范长廊、盐之有味（1+9+N）专区</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的定位是什么？</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心由盐都区政府国控集团、盐城市供销社、新立讯科技股份有限公司共同投资成立的国有控股企业，坐落于盐城紫峰大厦A栋，以数字技术结合互联网力量，推进农业现代化高质量发展的大型一站式供销交易平台，有3个定位，一是建成全国最大最全的东西协作农产品交易中心。构建“1+3”网点布局，即以华东农产品交易中心为桥头堡，以青海、西藏、新疆三地交易中心为辅助点，将西部特色的畜牧产品、青稞藜麦等农产品销往东部，将东部的特色海鲜、水产及果蔬带回西部，实现“东产西送、西产入东”。二是建成长三角有影响力的“东部优品”农产品数字交易平台。计划引入超3000家华东地区农林牧渔业种植养殖及加工企业，上线超20000个区域产品品种，打造“东部优品”品牌，打造成全省农产品流通的示范平台、辐射长三角农产品流通的示范项目。三是建成全市领先的数字农业总部基地和现代农业科创园。以华东农产品交易中心为龙头，打造全市首家农业科创园（数字农业总部基地），招引孵化一批动植物健康、智能装备、食品安全监测、农资数据服务等涉农全产业链科技企业，打造全市农业科技创业、项目孵化、人才培育的重要基地。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心在哪</t>
+  </si>
+  <si>
+    <t>华东（盐城）农产品交易中心，位于盐城市建军东路延伸段，沿海高速东出口向东300米，交通便利、四通八达，区域规划用地700亩，规划建筑面积60万平方米。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的中心设计</t>
+  </si>
+  <si>
+    <t>华东（盐城）农产品交易中心项目开发商盐城市金地带农贸商城开发有限公司，规划设计方为国内著名设计公司（上海五兹、江苏铭城），高标准规划设计、着力将市场打造成华东首创“别墅式”市场，中心功能区结构、构造及功能区建设皆为全国超一流，30年不落伍，别墅式标准外墙装饰，顶层别墅式花园、宽敞透亮的采光井交相辉映，在规划市场前即确保绝无商业死角。建筑总面积在108.2—126.2平方米不等，一房四层，一层作为展销区、二层可作洽谈办公区、三层可作仓储、居住，顶层采光井光线通透，宽敞的空中花园让您尽享生活的气度，不仅提升了生活、居住品质，而且与建筑风格和谐搭配，集交易、居住、仓储、办公四位一体，布局合理，时尚大气。独门独户，独立卫生间，户户通宽带，消防管道等安全设施齐全。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的中心规划</t>
+  </si>
+  <si>
+    <t>华东（盐城）农产品交易中心项目规划建成一站式农产品批发市场，市场划分为蔬菜、水果、粮油、活禽、水产品、海鲜、禽蛋、干鲜食品调味品、副食品等9个批发交易功能区和冷冻、冷藏保鲜、配载、物流、农副产品展示等5个商务功能区。从经营的角度考虑，对市场实行“统一规划、统一招商、统一管理、统一推广、统一开业”，严格把控经营户进货途径，严禁“三无”产品进入市场，开辟绿色通道，培育绿色市场，倡导绿色消费，帮助各位经营业主办理工商执照，做好相关服务工作，以“诚信为本，长期服务”为宗旨，以装满米袋子、丰富果盘子、充实菜篮子为己任，以经营者的实际需求为根本出发点，不断健全完善服务体系，全心全意为经营户营造一个诚信、安全、统一、便利的市场。为了使广大的经营户的购货途径更加轻松、更加便捷，市场将与全国各大市场联网，每天公布各地农产品需求量和价格，健全网上交易程序，打造一个网络商务平台，同时还与全国名特优农副产品基地协商签订长期、稳定的合作关系。配备冷冻保鲜仓储、大型停车场等一应俱全的物流设备；并设有经营户服务中心、食品安全检测中心和电子化代理结算中心，全天候为经营者提供服务。同时，为了使经营者的生活更加便利，还将建设金融、宾馆、酒店、超市、通讯、休闲、小型医院等配套设施。以完善的服务、一流的管理为所有的经营户搭建创富平台，成就财富梦想。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的简介</t>
+  </si>
+  <si>
+    <t>华东（盐城）农产品交易中心，位于盐城市建军东路延伸段，沿海高速东出口向东300米，交通便利、四通八达，区域规划用地700亩，规划建筑面积60万平方米。是作为“盐城市人民政府为民办实事、丰富城市菜篮子重点工程项目”和“盐城市人民政府重点工程”，华东地区超一流的农产品批发交易中心，也是盐城市政府规划的今后唯一特大型农产品批发专业卖场。项目一期工程已于2008年12月5日盛大开盘，共推出370套房源，仅开盘当天就售出300余套，华东（盐城）农产品交易中心项目得到了盐城市、区各级领导的重视和支持，在政策、税收、宣传等方面给予市场大力支持。</t>
+  </si>
+  <si>
+    <t>盐城有什么特产</t>
+  </si>
+  <si>
+    <t>盐城特产：一、美食类8种：鱼汤面；阜宁大糕；蟹黄包；藕粉圆子；翡翠烧卖；香酥芦花雀；生炝条虾；首乌糕。二、农产类8种：射阳大米；裕华大蒜；九龙口大闸蟹；滨海白首乌；东台西瓜；洋马菊花；恒北早酥梨；响水牛蒡。</t>
+  </si>
+  <si>
+    <t>介绍一下盐城的特产</t>
+  </si>
+  <si>
+    <t>盐城市是江苏省辖地级市，素有素有“金滩之滨、鱼米之多“之称，地理位置优越，物产资源丰富，包括滨海白何首乌、盐城龙虾、下灶蚕豆、东台西瓜、阜宁大糕、射阳大米、五醒浆酒.黄尖菊花、盐城海盐、东台发绣等。</t>
+  </si>
+  <si>
+    <t>盐城在哪？</t>
+  </si>
+  <si>
+    <r>
+      <t>盐城市，古称盐渎，别称瓢城、登瀛、百河之城，江苏省辖地级市，长江三角洲中心区城市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，位于中国东部沿海地区，江苏省东部，东临黄海，南与南通市接壤，西南与扬州市、泰州市为邻，西北与淮安市相连，北隔灌河和连云港市相望；市全境为平原地貌，为北亚热带向暖温带气候过渡地带；截至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年底，全市辖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个区、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个县，代管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个县级市，总面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16931</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平方千米。</t>
+    </r>
+  </si>
+  <si>
+    <t>盐城是哪个省的城市</t>
+  </si>
+  <si>
+    <t>盐城是江苏省辖地级市，是长江三角洲中心区城市，地处中国东部沿海地区，江苏东部，东临黄海，南与南通接壤，西南与扬州、泰州为邻，西北与淮安相连，北隔灌河和连云港相望。盐城全市土地总面积16931平方千米，其中沿海滩涂面积4553平方千米。</t>
+  </si>
+  <si>
+    <t>盐城的行政区划</t>
+  </si>
+  <si>
+    <t>盐城市下辖亭湖、盐都、大丰3个区，建湖、射阳、阜宁、滨海、响水5个县，东台1个县级市，另设有盐城经济技术开发区和盐南高新技术产业开发区。</t>
+  </si>
+  <si>
+    <t>华东交易中心整体包含什么</t>
+  </si>
+  <si>
+    <t>数据魔方（超算中心）；数字农产业展示区，华东农业AI数字人对话区；热力算法销售中心；5G物联网接入专区，苏青协作示范长廊；优质海产品区，优质淡水养殖区，预制菜专区，盐之有味（1+9+N）专区，华东优质农产汇聚区。</t>
+  </si>
+  <si>
+    <t>华东交易中心的农产数据魔方是什么</t>
+  </si>
+  <si>
+    <t>将华东农业数据进行整理分析、归纳和可视化，以更加直观、生动的方式呈现出来；产品AI鉴真溯源：新立讯基于AI图形处理技术为核心，以商品自身生物特征为唯一的指纹系统，率先在国内提出“自带生物密钥特征作为判别物体自身真伪”，利用图像识别技术提取生物指纹特征信息，并融入核心算法模型，同时结合先进大数据与区块链技术，实现全过程的数据分析与判别，真正做到“一物一码”。交易中心后台程序的监控，可以精准的分析出产品的流向地、溯源人群的热力分布、重点产品的覆盖面，这些数据将在实际商品运营中提供重要的决策辅助，实现真正的商业智能BI。</t>
+  </si>
+  <si>
+    <t>华东交易中心的大数据超算中心是什么</t>
+  </si>
+  <si>
+    <t>作为整个交易中心的核心大脑，华东农产品交易中心项目超算中心选用全套华为模块化产品，按电信级机房标准进行建设，内部的CPU、GPU服务器总数量达60余台，为交易中心的海量数据提供安全、可靠、稳定的计算服务。交易中心项目中，运营商为超算中心提供了多条100M及1000M专线，可实现365*24小时不间断运行。整体设计支持亿级用户注册、万级用户访问、千级用户并发，系统采用虚拟化容器技术，可动态扩容，为交易中心的长远发展提供了坚实的底层硬件基础。</t>
+  </si>
+  <si>
+    <t>江苏华东农副产品交易有限公司的联系电话是什么</t>
+  </si>
+  <si>
+    <t>华东交易中心的联系电话是0515-88668887</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的愿景是什么</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心，由国内顶尖互联网营销专家带队，打造了“线上电商平台+线下展销中心”的一体化营销模式，线上线下融合了省内一流供应链管理体系，结合了线上新零售商城、线下展销中心、实体专卖店、网红直播带货等多种互通互补、灵活多变的销售模式，打造了丰富多样的消费场景，满足了多类别客户的消费需求。运营中心左手供应链，右手销路市场，数十亿元采购订单，真正实现精准化、高效化乡村振兴。华东农产品交易中心，充分了展示“政企协作、市场化运营”的力量，聚焦电商转化、流量传播、网红爆款等互联网流量规律，打造了集产销扶贫对接、线下产品展销、特色产品新零售、产业人才培训、本土品牌增值、行业报告与规范发布等服务于一身的平台，实现“实现东产西送、西产入东”。</t>
+  </si>
+  <si>
+    <t>介绍一下华东农产品交易中心</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心在盐城市委、市政府关心指导下，由盐都区政府国控集团、盐城市供销社、新立讯科技股份有限公司共同投资成立的国有控股企业，坐落于盐城紫峰大厦A栋，以数字技术结合互联网力量，推进农业现代化高质量发展的大型一站式供销交易平台。华东农产品交易中心在盐城市委、市政府关心指导下，由盐都区政府国控集团、盐城市供销社、新立讯科技股份有限公司共同投资成立的国有控股企业，坐落于盐城紫峰大厦A栋，以数字技术结合互联网力量，推进农业现代化高质量发展的大型一站式供销交易平台。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心什么时候建立</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心在在盐城市委、市政府关心指导下于2022年建立。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心是谁建立</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心由盐都区国控集团、盐城市供销总社、新立讯科技股份有限公司联合投资运营，致力于放大长三角重要农产品产区优势，填补东西部区域产业类供销协作空白。新立讯是一家以科技创新为核心的信息服务商，拥有两家国家高新技术企业，是全国第二批专精特新“小巨人”企业。</t>
+  </si>
+  <si>
+    <t>新立讯公司在什么时候通过高新技术企业认定并成为国家级高新技术企业？</t>
+  </si>
+  <si>
+    <t>新立讯公司在1月通过高新技术企业认定管理工作协调小组审核，正式成为国家级高新技术企业。</t>
+  </si>
+  <si>
+    <t>新立讯全资控股的子公司在遵义市设立的注册资本是多少？</t>
+  </si>
+  <si>
+    <t>新立讯全资控股子公司贵州新立讯信息技术有限公司在遵义市设立，其注册资本（实收资本）为2000万人民币。</t>
+  </si>
+  <si>
+    <t>新立讯智慧教育事业在2016年取得了哪些成就？</t>
+  </si>
+  <si>
+    <t>新立讯2016年智慧教育事业迎来开门红，中标贵州省遵义市主城区“红花岗区教育局义务教育均衡发展所需班班通设备项目”，中标金额4496万余元。</t>
+  </si>
+  <si>
+    <t>新立讯的ISO三大管理体系运动状况如何？</t>
+  </si>
+  <si>
+    <t>新立讯ISO三大管理体系运动状况良好，符合体系认证的要求，南京新立讯电器有限责任公司顺利通过了ISO9001质量管理体系、ISO14001环境管理体系、OHSAS18001职业健康安全管理体系认证，并获得了相关证书。</t>
+  </si>
+  <si>
+    <t>新立讯在3月份取得了哪些重要成就？</t>
+  </si>
+  <si>
+    <t>在3月，新立讯的高新技术研究中心研发团队所研发的“新立讯视频系统控制软件V1.0”和“新立讯音频系统控制软件V1.0”获得了国家版权局颁发的计算机软件著作权登记证书。同时，贵州新立讯信息技术有限公司组织实施了桐梓中小学信息化二期培训会。</t>
+  </si>
+  <si>
+    <t>新立讯在哪些领域取得了合作协议的签署？</t>
+  </si>
+  <si>
+    <t>新立讯与多个组织在不同领域签署了合作协议，包括与扬州双博馆和深圳前海天开公司在智慧旅游和综合数据平台领域的合作，以及与中国电信集团系统集成贵州公司在ICT项目技术团队合作方面的协议。</t>
+  </si>
+  <si>
+    <t>新立讯于2016年7月取得了哪些重要进展？</t>
+  </si>
+  <si>
+    <t>2016年7月，千唐创投宣布正式入股新立讯。同月，南京新立讯电器有限责任公司股份改造完成，成立南京新立讯科技股份有限公司。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年获得了哪些软件著作权？</t>
+  </si>
+  <si>
+    <t>2016年8月24日，新立讯在蓝色海洋数据应用领域斩获五项计算机软件著作权，并获得了国家版权局颁发的计算机软件著作权登记证书。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年9月与哪家公司签署了全面战略合作协议？</t>
+  </si>
+  <si>
+    <t>2016年9月23日，新立讯与华平信息技术股份有限公司（股票代码：300074）签署全面战略合作协议，双方在智慧数据、智慧城市、智慧教育与智慧医疗项目建设等领域达成了长期合作。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年12月达成了哪些重要里程碑？</t>
+  </si>
+  <si>
+    <t>2016年12月，新立讯股份在新三板挂牌上市，股票代码870224，股票简称“新立讯”。此外，其全资子公司南京龟兔赛跑网络科技有限公司获得了“龟兔赛跑”商标的注册证书。</t>
+  </si>
+  <si>
+    <t>新立讯公司的董事长是谁？</t>
+  </si>
+  <si>
+    <t>南京新立讯科技股份有限公司的创始人兼董事长是毛霖先生。</t>
+  </si>
+  <si>
+    <t>毛霖是谁？</t>
+  </si>
+  <si>
+    <t>毛霖先生是南京新立讯科技股份有限公司的创始人兼董事长。</t>
+  </si>
+  <si>
+    <t>毛霖</t>
+  </si>
+  <si>
+    <t>南京新立讯科技股份有限公司的董事长毛霖先生参加了哪些重要活动？</t>
+  </si>
+  <si>
+    <t>2016年7月18日，毛霖先生参加了千唐创投与新立讯在上海浦东丽思卡尔顿酒店举行的战略合作协议签署仪式。</t>
+  </si>
+  <si>
+    <t>新立讯公司在2016年的发展战略中有哪些重要决策？</t>
+  </si>
+  <si>
+    <t>2016年5月4日，新立讯根据公司发展战略，为开拓全国性市场并增强企业竞争力，正式成立了深圳分公司。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年对外扩展方面取得了哪些成就？</t>
+  </si>
+  <si>
+    <t>2016年，新立讯在外部扩展方面取得了多项成就，包括与扬州双博馆、深圳前海天开公司以及中国电信集团系统集成贵州公司签订的合作协议。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年获得了哪些认证和荣誉？</t>
+  </si>
+  <si>
+    <t>新立讯在2016年获得了ISO9001质量管理体系、ISO14001环境管理体系和OHSAS18001职业健康安全管理体系认证，并斩获了五项计算机软件著作权。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年的智慧教育领域有哪些重要进展？</t>
+  </si>
+  <si>
+    <t>2016年，新立讯在智慧教育领域签订了总金额约5000余万的合同，并在桐梓县智慧一期项目中获得了专家组的全票高评价通过。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年如何加强与政府和其他机构的合作？</t>
+  </si>
+  <si>
+    <t>新立讯在2016年通过与华平信息技术股份有限公司和中国电信集团系统集成贵州公司等机构签署战略合作协议，加强了与政府和其他机构的合作。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年的资本市场活动中取得了哪些成就？</t>
+  </si>
+  <si>
+    <t>2016年，新立讯成功在新三板挂牌上市，股票代码为870224。此外，公司还与国内知名证券机构国联证券股份有限公司签署了上市合作协议。</t>
+  </si>
+  <si>
+    <t>新立讯在智慧教育和智慧城市建设方面取得了哪些进展？</t>
+  </si>
+  <si>
+    <t>新立讯在智慧教育和智慧城市建设方面的进展包括获得红花岗区教育局义务教育均衡发展所需班班通设备采购项目的中标通知书，以及与华平信息技术股份有限公司在智慧数据、智慧城市项目建设方面的长期合作。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年对内部管理和培训方面做出了哪些努力？</t>
+  </si>
+  <si>
+    <t>2016年，新立讯对内部管理和培训方面做出的努力包括成立南京新立讯电器有限责任公司党支部，以及组织实施桐梓中小学信息化二期培训会，旨在提升教师信息技术应用能力并深化信息技术与教育教学的融合。</t>
+  </si>
+  <si>
+    <t>新立讯在推动地区信息技术发展方面采取了哪些措施？</t>
+  </si>
+  <si>
+    <t>新立讯通过与中国电信集团系统集成贵州公司的合作，推动ICT在教育、交通、城市基础设施建设等领域的应用，助力中西部地区信息技术的发展和产业升级。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年进行了哪些战略扩展和布局？</t>
+  </si>
+  <si>
+    <t>2016年，新立讯在战略扩展和布局方面的举措包括成立深圳分公司和西安分公司，以及千唐创投正式入股新立讯，标志着公司战略布局的进一步完善和市场的拓展。</t>
+  </si>
+  <si>
+    <t>新立讯在获得资本市场认可方面取得了哪些成就？</t>
+  </si>
+  <si>
+    <t>新立讯在资本市场方面的成就包括在新三板挂牌上市，股票代码870224，以及与国联证券股份有限公司等机构签署的上市合作协议，展示了资本市场对新立讯的认可和支持。</t>
+  </si>
+  <si>
+    <t>新立讯在知识产权保护方面取得了哪些成绩？</t>
+  </si>
+  <si>
+    <t>新立讯在知识产权保护方面的成绩包括获得多项计算机软件著作权，并由国家版权局颁发“计算机软件著作权登记证书”，以及其全资子公司南京龟兔赛跑网络科技有限公司获得“龟兔赛跑”商标的注册证书。</t>
+  </si>
+  <si>
+    <t>新立讯如何推动智慧教育和智慧城市的发展？</t>
+  </si>
+  <si>
+    <t>新立讯通过中标重要的智慧教育项目、与华平信息技术股份有限公司等公司的合作，在智慧数据、智慧城市、智慧教育和智慧医疗等领域推动了项目建设和发展。</t>
+  </si>
+  <si>
+    <t>新立讯在企业社会责任方面采取了哪些举措？</t>
+  </si>
+  <si>
+    <t>新立讯在企业社会责任方面的举措包括举办桐梓中小学信息化二期培训会，旨在提升教师的信息技术应用能力，并实现信息技术与教育教学的深度融合。</t>
+  </si>
+  <si>
+    <t>新立讯在提升内部管理和员工能力方面做出了哪些努力？</t>
+  </si>
+  <si>
+    <t>新立讯在提升内部管理和员工能力方面的努力包括成立党支部，以及通过组织信息化培训会来全面提升教师的信息技术应用能力，从而加强了内部管理和员工能力的提升。</t>
+  </si>
+  <si>
+    <t>新立讯公司在智慧教育领域的主要成就是什么？</t>
+  </si>
+  <si>
+    <t>新立讯在智慧教育领域的主要成就包括中标贵州省遵义市主城区“红花岗区教育局义务教育均衡发展所需班班通设备项目”，中标金额达4496万余元。</t>
+  </si>
+  <si>
+    <t>新立讯获得了哪些质量和管理体系的认证？</t>
+  </si>
+  <si>
+    <t>新立讯获得了ISO9001质量管理体系、ISO14001环境管理体系和OHSAS18001职业健康安全管理体系的认证。</t>
+  </si>
+  <si>
+    <t>新立讯在提升教育信息化水平方面采取了哪些措施？</t>
+  </si>
+  <si>
+    <t>新立讯在提升教育信息化水平方面的措施包括组织桐梓中小学信息化二期培训会，以全面提升教师信息技术应用能力。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年达成了哪些重要合作协议？</t>
+  </si>
+  <si>
+    <t>2016年新立讯达成的重要合作协议包括与中国电信集团系统集成贵州公司的ICT项目合作，以及与扬州双博馆、深圳前海天开公司在智慧旅游和综合数据平台方面的合作。</t>
+  </si>
+  <si>
+    <t>新立讯在发展战略方面有哪些重要决策？</t>
+  </si>
+  <si>
+    <t>新立讯在发展战略方面的重要决策包括开拓全国性市场，增强企业竞争力，以及成立深圳分公司和西安分公司。</t>
+  </si>
+  <si>
+    <t>新立讯在资本市场方面取得了哪些进展？</t>
+  </si>
+  <si>
+    <t>新立讯在资本市场方面的进展包括成功在新三板挂牌上市，股票代码870224，以及与国内知名证券机构国联证券股份有限公司签署上市合作协议。</t>
+  </si>
+  <si>
+    <t>新立讯在2016年获得了哪些知识产权方面的成就？</t>
+  </si>
+  <si>
+    <t>2016年新立讯获得的知识产权成就包括斩获五项计算机软件著作权，并获得国家版权局颁发的计算机软件著作权登记证书。</t>
+  </si>
+  <si>
+    <t>新立讯公司的董事长参与了哪些重要活动？</t>
+  </si>
+  <si>
+    <t>新立讯公司的董事长毛霖先生参与了包括与千唐创投在上海浦东丽思卡尔顿酒店签署的战略合作协议在内的多项重要活动。</t>
+  </si>
+  <si>
+    <t>新立讯公司在智慧城市建设方面有哪些贡献？</t>
+  </si>
+  <si>
+    <t>新立讯公司在智慧城市建设方面的贡献包括与华平信息技术股份有限公司签署全面战略合作协议，推动智慧数据、智慧城市、智慧教育与智慧医疗项目的建设。</t>
+  </si>
+  <si>
+    <t>新立讯如何在技术创新方面展现其实力？</t>
+  </si>
+  <si>
+    <t>新立讯在技术创新方面的展现包括公司高新技术研究中心研发团队所研发的“新立讯视频系统控制软件V1.0”和“新立讯音频系统控制软件V1.0”获得计算机软件著作权登记证书。</t>
+  </si>
+  <si>
+    <t>新立讯公司为了提升信息技术在教育领域的应用采取了哪些措施？</t>
+  </si>
+  <si>
+    <t>新立讯通过与中国电信集团系统集成贵州公司的合作，推动ICT项目技术团队与中国电信的电信基础设施和信息通信技术服务对接，以此推动ICT在教育领域的应用。</t>
+  </si>
+  <si>
+    <t>新立讯在智慧教育领域取得的成就有哪些？</t>
+  </si>
+  <si>
+    <t>新立讯在智慧教育领域中标贵州省遵义市主城区“红花岗区教育局义务教育均衡发展所需班班通设备项目”，并与红花岗区教育局签订了约5000余万的合同，标志着其在智慧教育领域取得重要成就。</t>
+  </si>
+  <si>
+    <t>新立讯的技术研发团队在2016年取得了哪些成果？</t>
+  </si>
+  <si>
+    <t>新立讯的高新技术研究中心研发团队在2016年研发了“新立讯视频系统控制软件V1.0”和“新立讯音频系统控制软件V1.0”，并获得了国家版权局颁发的计算机软件著作权登记证书。</t>
+  </si>
+  <si>
+    <t>新立讯在提升企业内部管理方面做出了哪些举措？</t>
+  </si>
+  <si>
+    <t>新立讯在提升企业内部管理方面的举措包括成立南京新立讯电器有限责任公司党支部，并成功召开第一次支部党员大会，以此加强内部管理和企业文化建设。</t>
+  </si>
+  <si>
+    <t>新立讯如何推动智慧城市和信息技术的发展？</t>
+  </si>
+  <si>
+    <t>新立讯通过与华平信息技术股份有限公司的合作，以及与中国电信集团系统集成贵州公司签署的合作协议，推动智慧城市和信息技术在教育、交通、城市基础设施建设等领域的应用。</t>
+  </si>
+  <si>
+    <t>新立讯在智慧旅游领域有哪些发展？</t>
+  </si>
+  <si>
+    <t>新立讯与扬州双博馆、深圳前海天开公司签署了在线旅游数据云平台协议，共同探讨智慧旅游、综合数据平台，以及海外在线市场和技术领域的合作关系，推动智慧旅游领域的发展。</t>
+  </si>
+  <si>
+    <t>新立讯在获得国家级荣誉和认证方面取得了哪些成就？</t>
+  </si>
+  <si>
+    <t>新立讯在获得国家级荣誉和认证方面的成就包括成为国家级高新技术企业，获得ISO9001质量管理体系、ISO14001环境管理体系和OHSAS18001职业健康安全管理体系认证，以及获得多项计算机软件著作权。</t>
+  </si>
+  <si>
+    <t>新立讯在资本市场方面有哪些重大进展？</t>
+  </si>
+  <si>
+    <t>新立讯在资本市场方面的重大进展包括与国联证券股份有限公司签署上市合作协议，以及在新三板挂牌上市，股票代码870224，展示了其在资本市场的成功和认可。</t>
+  </si>
+  <si>
+    <t>新立讯在智慧数据和信息技术领域与哪些公司建立了合作？</t>
+  </si>
+  <si>
+    <t>新立讯在智慧数据和信息技术领域与华平信息技术股份有限公司建立了全面战略合作关系，共同推动智慧数据、智慧城市、智慧教育和智慧医疗项目的建设和发展。</t>
+  </si>
+  <si>
+    <t>新立讯在智慧教育领域如何实现信息技术与教育教学的融合？</t>
+  </si>
+  <si>
+    <t>新立讯通过组织实施桐梓中小学信息化二期培训会，以提升教师的信息技术应用能力，实现信息技术与教育教学的深度融合，从而推动智慧教育领域的发展。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心在推动当地农业科技创新方面发挥了哪些作用?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心通过引入和应用先进的农业科技，促进当地农业科技创新，提高农业生产的科技含量和效率。</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心对农产品国际化市场的开拓有何战略意义?</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心通过开拓国际市场，不仅增加了当地农产品的出口量，也提升了农产品在国际市场上的竞争力和品牌价值。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心如何影响区域农业供应链的整体效率?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心通过优化供应链管理，提升物流效率，有效降低了农业生产和分销的成本，提高了整体供应链的效率。</t>
+  </si>
+  <si>
+    <t>两个交易中心如何促进农业可持续发展和环境保护?</t>
+  </si>
+  <si>
+    <t>这两个交易中心在推广绿色农业实践、减少农业废弃物、以及运用环保技术方面发挥作用，促进农业的可持续发展和环境保护。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心如何支持本地农民和小型农业企业?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心通过提供市场接入机会、技术支持和培训，帮助本地农民和小型农业企业提升农产品质量和市场竞争力。</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心在促进农村经济发展方面的策略是什么?</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心通过整合资源，提供优化的供应链管理和增值服务，从而激活农村经济，促进农民收入增长和农村发展。</t>
+  </si>
+  <si>
+    <t>两个交易中心对于中国农业国际化有何影响?</t>
+  </si>
+  <si>
+    <t>这两个交易中心通过开拓国际市场，引入国际标准和技术，有助于提升中国农产品的国际竞争力，推动中国农业走向国际化。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心在环保和可持续发展方面采取了哪些措施?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心注重环保和可持续发展，实施绿色采购和运营策略，推广环保农业技术和可持续发展实践。</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心在增强区域内农产品的品牌影响力方面采取了哪些措施?</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心通过营销策略和品牌建设活动，提高区域内特色农产品的品牌知名度和市场影响力。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的数字交易平台有哪些特点?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的数字交易平台特点包括高效的交易处理、实时的市场信息更新、以及安全可靠的交易环境。</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心如何利用AI技术优化交易过程?</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心利用AI技术进行市场分析、价格预测，同时优化交易匹配和物流安排，提高整个交易过程的效率和准确性。</t>
+  </si>
+  <si>
+    <t>两个交易中心在促进区域经济发展中扮演的角色是什么?</t>
+  </si>
+  <si>
+    <t>两个交易中心在促进区域经济发展中的角色是作为农产品交易的枢纽，促进区域内外的农产品流通，同时为相关产业提供发展动力和市场机遇。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心如何影响当地的农业生产模式?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心通过提供先进的技术和市场信息，引导当地农民采用更高效、更可持续的农业生产模式，提高农产品的质量和产量。</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心在提高农产品质量方面采取了哪些措施?</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心通过引进先进的检测和加工技术，实施严格的质量控制体系，确保交易的农产品符合高标准的质量要求。</t>
+  </si>
+  <si>
+    <t>两个交易中心的建立如何影响中国农业市场的整体竞争力?</t>
+  </si>
+  <si>
+    <t>两个交易中心的建立通过提供高效的交易平台和丰富的市场资源，增强了中国农业市场的整体竞争力，促进了农业产业的升级和创新。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心在提升农产品品质和品牌影响力方面采取了哪些措施?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心通过引入先进的技术和管理模式，加强农产品的质量控制，同时利用数字化平台提高品牌的市场知名度和影响力。</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心对于青海省农业现代化的贡献是什么?</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心通过引入先进的技术和创新的经营理念，促进了青海省农业的现代化，提高了农业生产效率和产品质量。</t>
+  </si>
+  <si>
+    <t>两个交易中心如何支持和促进区域内农民的收入增长?</t>
+  </si>
+  <si>
+    <t>这两个交易中心通过提供更广阔的市场渠道，提高农产品的销售价格和销量，从而帮助区域内农民增加收入，改善生活水平。</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心在农产品交易方面采取了哪些创新措施?</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心在农产品交易方面采取了数字化、智能化的创新措施，利用先进的技术手段如大数据和AI，提高交易效率和透明度。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心如何促进东西部协作与农产品流通?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心通过建立完善的交易平台和物流网络，促进东西部地区农产品的互通有无，加强区域间的经济合作，增加农产品流通。</t>
+  </si>
+  <si>
+    <t>两个交易中心在农业供应链管理中扮演什么角色?</t>
+  </si>
+  <si>
+    <t>两个交易中心在农业供应链管理中扮演着重要角色，它们不仅作为交易枢纽，还通过技术和服务创新，提高整个供应链的效率和响应速度。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心和青海农林牧商品交易中心的共同目标是什么?</t>
+  </si>
+  <si>
+    <t>两个交易中心的共同目标是通过集成创新技术，推动农业现代化，增强农产品的市场竞争力，以及支持和促进农村振兴战略。</t>
+  </si>
+  <si>
+    <t>这两个交易中心对于区域经济有怎样的意义?</t>
+  </si>
+  <si>
+    <t>这两个交易中心对区域经济的意义在于促进区域农产品的流通，提高农业产业链的效率，同时为当地提供就业机会，促进经济发展。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的地理位置对其发展有何优势?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心位于经济发达的华东地区，这一地理位置有助于其更好地连接和服务于广大的东部市场，同时便于吸引更多的投资和技术合作。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的技术支持包括哪些方面?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的技术支持包括区块链技术、云计算、大数据、人工智能等多个方面。</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心的运营模式有何特点?</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心的运营模式主要是线上线下相结合，依托先进技术和完善的物流体系，实现高效的商品交易和服务。</t>
+  </si>
+  <si>
+    <t>两个交易中心的建立对当地农业发展有什么影响?</t>
+  </si>
+  <si>
+    <t>这两个交易中心的建立对当地农业发展起到了积极推动作用，不仅提升了农产品的市场竞争力，还促进了农业现代化和农村振兴。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心是由哪些机构共同投资组建的?</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心是由盐城市供销合作总社资产经营管理公司、盐都区政府国控集团、新立讯科技股份有限公司共同投资组建的。</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心的主要技术支持包括哪些?</t>
+  </si>
+  <si>
+    <t>青海农林牧商品交易中心的主要技术支持包括大数据、AI人工智能、5G物联网、AI鉴真防伪、图形处理和区块链等。</t>
+  </si>
+  <si>
+    <t>华东农产品交易中心的战略发展目标是什么?</t>
+  </si>
+  <si>
+    <t>其战略发展目标包括建成全国最大最全的东西部协作农产品交易中心，建成长三角有影响力的“东部优品”农产品数字交易平台，以及建成全市领先的数字农业总部经济基地和数字农业科创园区。</t>
+  </si>
+  <si>
+    <t>盐城特产</t>
+  </si>
+  <si>
+    <t>盐城的特产有射阳大米、洋马菊花 、响水浅水藕、恒北早酥梨 、东台发绣 、滨海白首乌、东台西瓜 、黄尖菊花、建湖青虾、盐东羊角椒。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -77,39 +1456,320 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -120,10 +1780,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -161,71 +1821,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -253,7 +1913,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -276,11 +1936,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -289,13 +1949,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -305,7 +1965,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -314,7 +1974,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -323,7 +1983,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,10 +1991,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -394,58 +2054,1124 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" style="4" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="77.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.575" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" ht="15" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" ht="15" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" ht="15" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" ht="15" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" ht="15" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" ht="15" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" ht="15" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" ht="15" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" ht="15" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" ht="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" ht="15" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" ht="15" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" ht="15" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" ht="15" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" ht="15" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" ht="15" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" ht="15" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" ht="15" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" ht="15" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" ht="15" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" ht="15" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" ht="15" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" ht="15" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" ht="15" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" ht="15" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" ht="15" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" ht="15" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" ht="15" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" ht="15" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" ht="15" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" ht="15" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" ht="15" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" ht="15" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" ht="15" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" ht="15" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" ht="15" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" ht="15" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" ht="15" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" ht="15" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" ht="15" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" ht="15" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" ht="15" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" ht="15" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" ht="15" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" ht="15" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" ht="15" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" ht="15" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" ht="15" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" ht="15" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" ht="15" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" ht="15" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" ht="15" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" ht="15" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" ht="15" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" ht="15" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" ht="15" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" ht="15" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" ht="15" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" ht="15" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" ht="15" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" ht="15" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" ht="15" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" ht="15" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" ht="15" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" ht="15" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" ht="15" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" ht="15" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" ht="15" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" ht="15" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" ht="15" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" ht="15" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" ht="15" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" ht="15" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" ht="15" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" ht="15" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" ht="15" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" ht="15" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" ht="15" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" ht="15" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" ht="15" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" ht="15" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/qa_demo.xlsx
+++ b/qa_demo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Python\Fay\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A513F28-13F2-48A9-AEAA-1B1A3BF961D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="240">
   <si>
     <t>问题语料</t>
   </si>
@@ -67,7 +71,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>​​</t>
     </r>
@@ -85,7 +89,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>​​</t>
     </r>
@@ -103,7 +107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ICT</t>
     </r>
@@ -121,7 +125,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>​​</t>
     </r>
@@ -139,7 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>​​</t>
     </r>
@@ -157,7 +161,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>​​</t>
     </r>
@@ -175,7 +179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>“</t>
     </r>
@@ -193,7 +197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>”</t>
     </r>
@@ -211,7 +215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1.458</t>
     </r>
@@ -229,7 +233,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>“</t>
     </r>
@@ -247,7 +251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>”</t>
     </r>
@@ -265,7 +269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>​​</t>
     </r>
@@ -429,7 +433,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -447,7 +451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2022</t>
     </r>
@@ -465,7 +469,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -483,7 +487,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -501,7 +505,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -519,7 +523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>16931</t>
     </r>
@@ -1069,19 +1073,21 @@
   </si>
   <si>
     <t>盐城的特产有射阳大米、洋马菊花 、响水浅水藕、恒北早酥梨 、东台发绣 、滨海白首乌、东台西瓜 、黄尖菊花、建湖青虾、盐东羊角椒。</t>
+  </si>
+  <si>
+    <t>测试问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到测试问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,7 +1099,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1109,345 +1115,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1455,321 +1146,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2054,1124 +1459,1130 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.575" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77.6328125" customWidth="1"/>
+    <col min="2" max="2" width="72.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" ht="15" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" ht="15" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" ht="15" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" ht="15" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" ht="15" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" ht="15" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" ht="15" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" ht="15" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" ht="15" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" ht="15" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" ht="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" ht="15" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" ht="15" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" ht="15" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" ht="15" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" ht="15" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" ht="15" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" ht="15" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" ht="15" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" ht="15" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" ht="15" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" ht="15" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" ht="15" spans="1:4">
-      <c r="A27" s="3" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" ht="15" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" ht="15" spans="1:4">
-      <c r="A29" s="3" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" ht="15" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" ht="15" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" ht="15" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" ht="15" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" ht="15" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" ht="15" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" ht="15" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" ht="15" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" ht="15" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" ht="15" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" ht="15" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" ht="15" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" ht="15" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" ht="15" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" ht="15" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" ht="15" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" ht="15" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="2" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="2" t="s">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="2" t="s">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="2" t="s">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="2" t="s">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="2" t="s">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="2" t="s">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="2" t="s">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="2" t="s">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="2" t="s">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="2" t="s">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="2" t="s">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="2" t="s">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="2" t="s">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="2" t="s">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="2" t="s">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="2" t="s">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="2" t="s">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="2" t="s">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="2" t="s">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="2" t="s">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="2" t="s">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="2" t="s">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" ht="15" spans="1:3">
-      <c r="A71" s="2" t="s">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" ht="15" spans="1:3">
-      <c r="A72" s="2" t="s">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="2" t="s">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" ht="15" spans="1:3">
-      <c r="A74" s="2" t="s">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" ht="15" spans="1:3">
-      <c r="A75" s="2" t="s">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" ht="15" spans="1:3">
-      <c r="A76" s="2" t="s">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" ht="15" spans="1:3">
-      <c r="A77" s="2" t="s">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" ht="15" spans="1:3">
-      <c r="A78" s="2" t="s">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" ht="15" spans="1:3">
-      <c r="A79" s="2" t="s">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" ht="15" spans="1:3">
-      <c r="A80" s="2" t="s">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" ht="15" spans="1:3">
-      <c r="A81" s="2" t="s">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" ht="15" spans="1:3">
-      <c r="A82" s="2" t="s">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" ht="15" spans="1:3">
-      <c r="A83" s="2" t="s">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" ht="15" spans="1:3">
-      <c r="A84" s="2" t="s">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" ht="15" spans="1:3">
-      <c r="A85" s="2" t="s">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" ht="15" spans="1:3">
-      <c r="A86" s="2" t="s">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" ht="15" spans="1:3">
-      <c r="A87" s="2" t="s">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" ht="15" spans="1:3">
-      <c r="A88" s="2" t="s">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="4" t="s">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="4" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="4" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="4" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="4" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="4" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="4" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="4"/>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>